--- a/Structural design sheets/Catilever retaining wall.xlsx
+++ b/Structural design sheets/Catilever retaining wall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Exceldesignfiles\Structural design sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864CEFFE-9347-4652-BC32-9DE0F7604B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F53A323-3BCD-4091-B9DC-D84EBA87E08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12180" yWindow="3135" windowWidth="15060" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="G77" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78:N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
